--- a/static/src/assets/test_cases_acciom_tool.xlsx
+++ b/static/src/assets/test_cases_acciom_tool.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="53">
   <si>
     <t xml:space="preserve">Test Case ID</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t xml:space="preserve">TC_Test_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_Test_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventorythree:NewInventorythree;</t>
   </si>
 </sst>
 </file>
@@ -459,6 +465,7 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -467,6 +474,7 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -475,6 +483,7 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
@@ -483,6 +492,7 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -555,8 +565,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="48" zoomScaleNormal="48" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F7" colorId="64" zoomScale="48" zoomScaleNormal="48" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -877,7 +887,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>40</v>
@@ -941,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>17</v>
@@ -962,7 +972,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="135.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="153" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
